--- a/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
+++ b/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86180\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CB31E1-F326-4D59-A89A-8D3516F3106C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2DCF0E-7D4E-46F6-8E74-F54E441AC362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24555" yWindow="2895" windowWidth="21600" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="516" yWindow="1692" windowWidth="21108" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news_bs4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="130">
   <si>
     <t>Table</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Table Name</t>
   </si>
   <si>
-    <t>news_bs4</t>
-  </si>
-  <si>
     <t>Written Date</t>
   </si>
   <si>
@@ -105,15 +102,9 @@
     <t>非空、不重复</t>
   </si>
   <si>
-    <t>news_title</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>新闻标题（使用 varchar 的原因是因为我在看新闻时发现看到的文章标题最长有70多个字，也就是140多个字节，但是有的就5个字，差别比较大，使用char浪费的空间较多）</t>
-  </si>
-  <si>
     <t>不为空</t>
   </si>
   <si>
@@ -129,36 +120,18 @@
     <t>CHAR</t>
   </si>
   <si>
-    <t>新闻来源的报刊或者网站名</t>
-  </si>
-  <si>
     <t>外键</t>
   </si>
   <si>
     <t xml:space="preserve">参照news_link </t>
   </si>
   <si>
-    <t>news_time</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>新闻发布时间（由于有日报没有时分秒，因此就使用DATE）</t>
-  </si>
-  <si>
-    <t>news_content</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
-    <t>新闻正文（以今日头条为例，有关政治的文章字数一般都超万字，因此需要TEXT）</t>
-  </si>
-  <si>
-    <t>备注：news_bs4 爬取是增加，到时间以后是删除，管理员也可以删除，用户可以查看新闻</t>
-  </si>
-  <si>
     <t>news_classification</t>
   </si>
   <si>
@@ -268,9 +241,6 @@
   </si>
   <si>
     <t>300个字符以内</t>
-  </si>
-  <si>
-    <t>备注：news_link 管理员可以增加目标网站，可以删除目标网站，可以修改目标网站，可以查询目标网站</t>
   </si>
   <si>
     <t>news_pretreatment</t>
@@ -403,6 +373,74 @@
   </si>
   <si>
     <t>user_permission</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻标题（使用 varchar 的原因是因为我在看新闻时发现看到的文章标题最长有70多个字，也就是140多个字节，但是有的就5个字，差别比较大，使用char浪费的空间较多）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_id</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻编号（通过uuid算法生成全局唯一ID，18位）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_title</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_source</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_time</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_content</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻发布时间（由于有日报没有时分秒，因此就使用DATE）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻正文（以今日头条为例，有关政治的文章字数一般都超万字，因此需要TEXT）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：news_link 管理员可以增加目标网站，可以删除目标网站，可以修改目标网站，可以查询目标网站</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：news_bs4 爬取是增加，到时间以后是删除，管理员也可以删除，用户可以查看新闻，news_link 管理员可以增加目标网站，可以删除目标网站，可以修改目标网站，可以查询目标网站</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_url</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻来源的报刊或者网站名</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>此新闻真实的url</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +589,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -756,7 +817,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,9 +901,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +955,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,44 +988,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1222,33 +1298,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="139.25" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="139.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="48.6" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1270,200 +1346,220 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>116</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>25</v>
+      <c r="C7" s="49" t="s">
+        <v>117</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="23">
         <v>200</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>27</v>
+      <c r="F7" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="28">
         <v>20</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>33</v>
+      <c r="F8" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="23" t="s">
-        <v>36</v>
+      <c r="C9" s="50" t="s">
+        <v>119</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="24" t="s">
-        <v>38</v>
+      <c r="F9" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>5</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="23">
+        <v>100</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,27 +1575,27 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="51.25" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="51.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1507,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1521,125 +1617,125 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>117</v>
+      <c r="B6" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>116</v>
+      <c r="G6" s="46" t="s">
+        <v>106</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="42">
+      <c r="B7" s="42"/>
+      <c r="C7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="41">
         <v>20</v>
       </c>
-      <c r="F7" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1657,31 +1753,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="6" width="52.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="52.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1689,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1703,243 +1799,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>53</v>
+      <c r="B6" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="38" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>2</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="41" t="s">
-        <v>59</v>
+      <c r="F7" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>4</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>6</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>7</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>8</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1958,29 +2054,29 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
     <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2002,129 +2098,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="17">
         <v>20</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>33</v>
+      <c r="F6" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="23">
         <v>300</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2146,27 +2242,27 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="8.625" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="55.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2188,147 +2284,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>87</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="18" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2350,26 +2446,26 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2391,123 +2487,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>53</v>
+      <c r="B6" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="38" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2529,26 +2625,26 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="60.75" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="60.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2570,129 +2666,129 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>30</v>
+      <c r="B7" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="28">
         <v>20</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>100</v>
+      <c r="F7" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2714,25 +2810,25 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="51.25" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="51.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2740,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2754,171 +2850,171 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="60" t="s">
-        <v>118</v>
+      <c r="F6" s="47" t="s">
+        <v>108</v>
       </c>
       <c r="G6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="62" t="s">
-        <v>120</v>
+      <c r="C7" s="49" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7" s="23">
         <v>20</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>119</v>
+      <c r="F7" s="48" t="s">
+        <v>109</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>3</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="63" t="s">
-        <v>121</v>
+      <c r="C8" s="50" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E8" s="23">
         <v>30</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="63" t="s">
-        <v>122</v>
+      <c r="C9" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2940,26 +3036,26 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="34.75" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="51.625" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.6">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2981,225 +3077,225 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="9">
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>19</v>
+      <c r="B6" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="28">
         <v>20</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>106</v>
+      <c r="F6" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>4</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>6</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>7</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
+++ b/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86180\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2DCF0E-7D4E-46F6-8E74-F54E441AC362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD3B89-B76C-43BD-B5A9-F0ED87270869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="516" yWindow="1692" windowWidth="21108" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="130">
   <si>
     <t>Table</t>
   </si>
@@ -153,9 +153,6 @@
     <t>备份：新闻做分类是新增，管理员可以对新闻的分类进行修正，比如更改某个新闻的分类，删除这个新闻分类，也可以从某个分类中删除新闻，用户可以查看分类</t>
   </si>
   <si>
-    <t>news_hot</t>
-  </si>
-  <si>
     <t>热门新闻以及其热度</t>
   </si>
   <si>
@@ -163,9 +160,6 @@
   </si>
   <si>
     <t>P、F</t>
-  </si>
-  <si>
-    <t>hot_news_id</t>
   </si>
   <si>
     <t>主键、外键</t>
@@ -384,14 +378,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>新闻编号（通过uuid算法生成全局唯一ID，18位）</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>news_title</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -441,6 +427,22 @@
   </si>
   <si>
     <t>此新闻真实的url</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据news_id去news_info中找初次时间</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_hot</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻编号（通过uuid算法生成全局唯一ID，30位）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +819,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,6 +1023,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="58" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -1416,14 +1419,16 @@
         <v>18</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>128</v>
+      </c>
+      <c r="E6" s="17">
+        <v>30</v>
+      </c>
       <c r="F6" s="47" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -1438,7 +1443,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>24</v>
@@ -1447,7 +1452,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -1464,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>29</v>
@@ -1473,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>30</v>
@@ -1488,14 +1493,14 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="48" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>25</v>
@@ -1508,16 +1513,16 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="50" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E10" s="23">
         <v>100</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1528,14 +1533,14 @@
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>25</v>
@@ -1544,7 +1549,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -1684,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>19</v>
@@ -1697,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>37</v>
@@ -1751,16 +1756,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="25.21875" customWidth="1"/>
@@ -1804,8 +1809,8 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>41</v>
+      <c r="C3" s="58" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -1823,7 +1828,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1832,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -1866,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>20</v>
@@ -1879,10 +1884,10 @@
         <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -1891,14 +1896,14 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -1911,14 +1916,14 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>25</v>
@@ -1931,14 +1936,14 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>25</v>
@@ -1951,14 +1956,14 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>25</v>
@@ -1971,14 +1976,14 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>25</v>
@@ -1991,14 +1996,14 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>25</v>
@@ -2011,14 +2016,14 @@
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>25</v>
@@ -2027,7 +2032,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -2036,6 +2041,11 @@
       <c r="F14" s="65"/>
       <c r="G14" s="65"/>
       <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="69" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2104,7 +2114,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2122,7 +2132,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2131,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -2177,13 +2187,13 @@
         <v>20</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -2192,7 +2202,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>24</v>
@@ -2201,18 +2211,18 @@
         <v>300</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" s="65"/>
       <c r="C8" s="65"/>
@@ -2290,7 +2300,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2308,7 +2318,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2317,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -2351,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>19</v>
@@ -2364,7 +2374,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>37</v>
@@ -2376,14 +2386,14 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -2398,25 +2408,25 @@
         <v>27</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -2493,7 +2503,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2511,7 +2521,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2520,7 +2530,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -2554,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>19</v>
@@ -2567,7 +2577,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>37</v>
@@ -2579,14 +2589,14 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -2595,7 +2605,7 @@
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -2672,7 +2682,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2690,7 +2700,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2760,7 +2770,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>29</v>
@@ -2769,18 +2779,18 @@
         <v>20</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -2856,7 +2866,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2874,7 +2884,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2883,7 +2893,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -2920,14 +2930,14 @@
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -2942,7 +2952,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>29</v>
@@ -2951,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -2966,7 +2976,7 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>29</v>
@@ -2975,13 +2985,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -2990,14 +3000,14 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>25</v>
@@ -3006,7 +3016,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -3083,7 +3093,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -3101,7 +3111,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -3110,7 +3120,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
@@ -3147,7 +3157,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>29</v>
@@ -3156,13 +3166,13 @@
         <v>20</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
@@ -3171,14 +3181,14 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>25</v>
@@ -3191,14 +3201,14 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>25</v>
@@ -3211,14 +3221,14 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>25</v>
@@ -3231,14 +3241,14 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>25</v>
@@ -3251,14 +3261,14 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>25</v>
@@ -3271,14 +3281,14 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>25</v>
@@ -3287,7 +3297,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>

--- a/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
+++ b/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86180\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AD3B89-B76C-43BD-B5A9-F0ED87270869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3E6860-99EA-4C2A-A866-7A0F61811B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="1692" windowWidth="21108" windowHeight="10008" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23310" yWindow="1965" windowWidth="21600" windowHeight="10110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news_bs4" sheetId="1" r:id="rId1"/>
-    <sheet name="news_classification" sheetId="2" r:id="rId2"/>
-    <sheet name="news_hot" sheetId="3" r:id="rId3"/>
-    <sheet name="news_link" sheetId="4" r:id="rId4"/>
+    <sheet name="news_hot" sheetId="3" r:id="rId2"/>
+    <sheet name="news_link" sheetId="4" r:id="rId3"/>
+    <sheet name="news_classification" sheetId="2" r:id="rId4"/>
     <sheet name="news_pretreatment" sheetId="5" r:id="rId5"/>
     <sheet name="news_summary" sheetId="6" r:id="rId6"/>
     <sheet name="news_tag" sheetId="7" r:id="rId7"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
   <si>
     <t>Table</t>
   </si>
@@ -87,15 +87,9 @@
     <t>P</t>
   </si>
   <si>
-    <t>news_id</t>
-  </si>
-  <si>
     <t>SMALLINT</t>
   </si>
   <si>
-    <t>新闻编号（通过特定算法生成全局唯一ID，0~65535）</t>
-  </si>
-  <si>
     <t>主键</t>
   </si>
   <si>
@@ -231,9 +225,6 @@
     <t>news_source_link</t>
   </si>
   <si>
-    <t>新闻链接（使用VARCHAR的原因是因为超过了CHAR的最大值）</t>
-  </si>
-  <si>
     <t>300个字符以内</t>
   </si>
   <si>
@@ -267,19 +258,10 @@
     <t>备注：用户可以增、删、改、查对应的新闻分词，每个用户弄完以后都会有一个专属的分词表直到下一次查询</t>
   </si>
   <si>
-    <t>news_summary</t>
-  </si>
-  <si>
     <t>新闻摘要</t>
   </si>
   <si>
     <t>2 ~ 65538 bytes</t>
-  </si>
-  <si>
-    <t>news_summ</t>
-  </si>
-  <si>
-    <t>新闻摘要（考虑到长新闻摘要可能超过千字，因此需要TEXT）</t>
   </si>
   <si>
     <t>备注：用户可以查看，通过摘要提取算法模型获得对应新闻的摘要，新增插入到表中，管理员可以修改内容和删除</t>
@@ -426,10 +408,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>此新闻真实的url</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>根据news_id去news_info中找初次时间</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -442,7 +420,31 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>新闻编号（通过uuid算法生成全局唯一ID，30位）</t>
+    <t>news_summary</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻编号（通过我的算法生成全局唯一ID）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个报刊主页的新闻链接（使用VARCHAR的原因是因为超过了CHAR的最大值）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>此新闻真实的url，经过尝试，发现300左右正好</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_summ</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键、外键</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻摘要（算法模型提取的）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -927,9 +929,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -981,6 +980,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,7 +1023,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1303,23 +1305,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="139.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="139.25" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1349,13 +1351,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -1367,7 +1369,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -1411,145 +1413,145 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>128</v>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
       </c>
       <c r="E6" s="17">
-        <v>30</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>129</v>
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="49" t="s">
-        <v>113</v>
+      <c r="C7" s="48" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="23">
         <v>200</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>111</v>
+      <c r="F7" s="47" t="s">
+        <v>105</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="28">
         <v>20</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>124</v>
+      <c r="F8" s="50" t="s">
+        <v>118</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="50" t="s">
-        <v>115</v>
+      <c r="C9" s="49" t="s">
+        <v>109</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="48" t="s">
-        <v>119</v>
+      <c r="F9" s="47" t="s">
+        <v>113</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>5</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="49" t="s">
         <v>117</v>
       </c>
+      <c r="D10" s="49" t="s">
+        <v>111</v>
+      </c>
       <c r="E10" s="23">
-        <v>100</v>
-      </c>
-      <c r="F10" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>6</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
         <v>116</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>122</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="65"/>
@@ -1573,26 +1575,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="52.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1622,13 +1624,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>34</v>
+      <c r="C3" s="58" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -1640,13 +1642,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1655,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -1684,63 +1686,373 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>105</v>
+      <c r="B6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>2</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>3</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>6</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>8</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="17">
         <v>20</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>104</v>
+      <c r="F6" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="41">
-        <v>20</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="23">
+        <v>300</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1754,27 +2066,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="52.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="51.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -1804,13 +2116,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="58" t="s">
-        <v>127</v>
+      <c r="C3" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -1822,13 +2134,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -1837,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -1866,371 +2178,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="40">
+        <v>2</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40">
         <v>20</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>2</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>3</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>5</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A14:H14"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17">
-        <v>20</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="23">
-        <v>300</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="F7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2248,23 +2254,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="55.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2294,13 +2300,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2312,13 +2318,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2327,10 +2333,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2356,77 +2362,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>72</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -2452,22 +2460,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="57.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2483,7 +2491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2497,13 +2505,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>79</v>
+      <c r="C3" s="58" t="s">
+        <v>122</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2515,13 +2523,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2530,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -2559,53 +2567,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>127</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24" t="s">
-        <v>83</v>
+      <c r="C7" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="23">
+        <v>150</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -2632,21 +2644,21 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="60.75" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2676,13 +2688,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2694,13 +2706,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2709,10 +2721,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -2738,59 +2750,61 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="17">
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="37" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>123</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>2</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>27</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="E7" s="28">
         <v>20</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="67" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -2817,20 +2831,20 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="51.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="51.25" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2860,13 +2874,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -2878,13 +2892,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -2893,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2922,7 +2936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>1</v>
       </c>
@@ -2930,93 +2944,93 @@
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="20">
         <v>2</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="49" t="s">
-        <v>108</v>
+      <c r="C7" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="23">
         <v>20</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>107</v>
+      <c r="F7" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>3</v>
       </c>
       <c r="B8" s="21"/>
-      <c r="C8" s="50" t="s">
-        <v>109</v>
+      <c r="C8" s="49" t="s">
+        <v>103</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="23">
         <v>30</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>4</v>
       </c>
       <c r="B9" s="21"/>
-      <c r="C9" s="50" t="s">
-        <v>110</v>
+      <c r="C9" s="49" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B10" s="65"/>
       <c r="C10" s="65"/>
@@ -3042,22 +3056,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="34.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.75" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -3087,13 +3101,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="66" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="59"/>
@@ -3105,13 +3119,13 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="62"/>
@@ -3120,10 +3134,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -3157,147 +3171,147 @@
         <v>18</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="28">
         <v>20</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>2</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>3</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>4</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="23">
         <v>6</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
         <v>7</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" s="65"/>
       <c r="C13" s="65"/>

--- a/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
+++ b/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
@@ -8,27 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3E6860-99EA-4C2A-A866-7A0F61811B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3386954-336A-46F5-A639-83FE65D62ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23310" yWindow="1965" windowWidth="21600" windowHeight="10110" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22725" yWindow="4860" windowWidth="21600" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news_bs4" sheetId="1" r:id="rId1"/>
-    <sheet name="news_hot" sheetId="3" r:id="rId2"/>
-    <sheet name="news_link" sheetId="4" r:id="rId3"/>
+    <sheet name="news_link" sheetId="4" r:id="rId2"/>
+    <sheet name="news_hot" sheetId="3" r:id="rId3"/>
     <sheet name="news_classification" sheetId="2" r:id="rId4"/>
     <sheet name="news_pretreatment" sheetId="5" r:id="rId5"/>
-    <sheet name="news_summary" sheetId="6" r:id="rId6"/>
-    <sheet name="news_tag" sheetId="7" r:id="rId7"/>
-    <sheet name="user_info" sheetId="10" r:id="rId8"/>
-    <sheet name="news_tag_hot" sheetId="8" r:id="rId9"/>
+    <sheet name="news_tag" sheetId="7" r:id="rId6"/>
+    <sheet name="user_info" sheetId="10" r:id="rId7"/>
+    <sheet name="news_tag_hot" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="125">
   <si>
     <t>Table</t>
   </si>
@@ -256,15 +255,6 @@
   </si>
   <si>
     <t>备注：用户可以增、删、改、查对应的新闻分词，每个用户弄完以后都会有一个专属的分词表直到下一次查询</t>
-  </si>
-  <si>
-    <t>新闻摘要</t>
-  </si>
-  <si>
-    <t>2 ~ 65538 bytes</t>
-  </si>
-  <si>
-    <t>备注：用户可以查看，通过摘要提取算法模型获得对应新闻的摘要，新增插入到表中，管理员可以修改内容和删除</t>
   </si>
   <si>
     <t>news_tag</t>
@@ -436,15 +426,11 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>news_summ</t>
+    <t>新闻摘要（算法模型提取的）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>主键、外键</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻摘要（算法模型提取的）</t>
+    <t>备注：用户可以查看，通过摘要提取算法模型获得对应新闻的摘要，新增插入到表中，管理员可以修改内容和删除</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -821,7 +807,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,6 +967,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,8 +1012,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1303,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1322,14 +1314,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,12 +1348,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,12 +1366,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1421,16 +1413,16 @@
         <v>18</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
+      <c r="F6" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>20</v>
@@ -1445,7 +1437,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="48" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>22</v>
@@ -1454,7 +1446,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>23</v>
@@ -1471,7 +1463,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>27</v>
@@ -1480,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>28</v>
@@ -1495,14 +1487,14 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>23</v>
@@ -1515,16 +1507,16 @@
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="23">
         <v>300</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1535,38 +1527,72 @@
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="23">
+        <v>150</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:G14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1575,6 +1601,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="29.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="17">
+        <v>20</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="23">
+        <v>300</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -1595,14 +1806,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1629,12 +1840,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1647,12 +1858,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1694,16 +1905,16 @@
         <v>41</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
+      <c r="F6" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>42</v>
@@ -1853,20 +2064,20 @@
       <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1875,191 +2086,6 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A14:H14"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="29.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="17">
-        <v>20</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="23">
-        <v>300</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2087,14 +2113,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2121,12 +2147,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2139,12 +2165,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2183,22 +2209,22 @@
         <v>1</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
+      <c r="F6" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>35</v>
@@ -2227,16 +2253,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2271,14 +2297,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2305,12 +2331,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2323,12 +2349,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2370,16 +2396,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
+      <c r="F6" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>42</v>
@@ -2433,16 +2459,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2457,189 +2483,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="57.5" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9">
-        <v>44876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>1</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="17">
-        <v>8</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>2</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="23">
-        <v>150</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A8:H8"/>
-  </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2659,14 +2502,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2693,12 +2536,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2711,12 +2554,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2758,16 +2601,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E6" s="17">
         <v>8</v>
       </c>
-      <c r="F6" s="69" t="s">
-        <v>123</v>
+      <c r="F6" s="55" t="s">
+        <v>120</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>28</v>
@@ -2784,7 +2627,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>27</v>
@@ -2793,26 +2636,26 @@
         <v>20</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="A8" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2826,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2845,14 +2688,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2879,12 +2722,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2897,17 +2740,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -2951,7 +2794,7 @@
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>20</v>
@@ -2966,7 +2809,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>27</v>
@@ -2975,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>23</v>
@@ -2990,7 +2833,7 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>27</v>
@@ -2999,13 +2842,13 @@
         <v>30</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -3014,14 +2857,14 @@
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="49" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>23</v>
@@ -3029,16 +2872,16 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="A10" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3052,7 +2895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -3072,14 +2915,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" x14ac:dyDescent="0.5">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3106,12 +2949,12 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="C3" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3124,17 +2967,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -3171,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>27</v>
@@ -3180,7 +3023,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>20</v>
@@ -3310,16 +3153,16 @@
       <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="A13" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
+++ b/databaseDesign/v2.0/3 数据库表设计/1 2-09-C.2基于AI的新闻热点聚合及可视化系统-数据库表设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\数据库课程设计GitHub同步\databaseDesign\v2.0\3 数据库表设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3386954-336A-46F5-A639-83FE65D62ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2793F77-3F79-4259-9306-BA5133C9AD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22725" yWindow="4860" windowWidth="21600" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="4530" windowWidth="21600" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="news_bs4" sheetId="1" r:id="rId1"/>
@@ -1003,6 +1003,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,12 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1305,7 +1305,7 @@
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
     <col min="5" max="5" width="8.375" customWidth="1"/>
     <col min="6" max="6" width="139.25" customWidth="1"/>
@@ -1576,15 +1576,15 @@
       <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1654,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="60"/>
@@ -2147,7 +2147,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="60"/>
@@ -2253,16 +2253,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2331,7 +2331,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="60"/>
@@ -2536,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="60"/>
@@ -2646,16 +2646,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="60"/>
@@ -2949,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="60"/>
